--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Ptprb</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H2">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I2">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J2">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>149.720833061918</v>
+        <v>160.469513</v>
       </c>
       <c r="N2">
-        <v>149.720833061918</v>
+        <v>481.408539</v>
       </c>
       <c r="O2">
-        <v>0.9901855593992133</v>
+        <v>0.9881921872772522</v>
       </c>
       <c r="P2">
-        <v>0.9901855593992133</v>
+        <v>0.9908580394792582</v>
       </c>
       <c r="Q2">
-        <v>5755.179678088573</v>
+        <v>36.81090393463501</v>
       </c>
       <c r="R2">
-        <v>5755.179678088573</v>
+        <v>331.298135411715</v>
       </c>
       <c r="S2">
-        <v>0.8478413529775602</v>
+        <v>0.004477021047120097</v>
       </c>
       <c r="T2">
-        <v>0.8478413529775602</v>
+        <v>0.004691227849764729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H3">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I3">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J3">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.360093196324031</v>
+        <v>0.3902430000000001</v>
       </c>
       <c r="N3">
-        <v>0.360093196324031</v>
+        <v>1.170729</v>
       </c>
       <c r="O3">
-        <v>0.002381492780570517</v>
+        <v>0.00240316728411606</v>
       </c>
       <c r="P3">
-        <v>0.002381492780570517</v>
+        <v>0.002409650323426259</v>
       </c>
       <c r="Q3">
-        <v>13.8417680647353</v>
+        <v>0.08951979298500003</v>
       </c>
       <c r="R3">
-        <v>13.8417680647353</v>
+        <v>0.8056781368650001</v>
       </c>
       <c r="S3">
-        <v>0.002039141090292499</v>
+        <v>1.088758912411785E-05</v>
       </c>
       <c r="T3">
-        <v>0.002039141090292499</v>
+        <v>1.140851489825196E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H4">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I4">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J4">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0436919293360523</v>
+        <v>0.1305423333333333</v>
       </c>
       <c r="N4">
-        <v>0.0436919293360523</v>
+        <v>0.391627</v>
       </c>
       <c r="O4">
-        <v>0.0002889585677963607</v>
+        <v>0.0008038967121994246</v>
       </c>
       <c r="P4">
-        <v>0.0002889585677963607</v>
+        <v>0.0008060653893535184</v>
       </c>
       <c r="Q4">
-        <v>1.679491749203262</v>
+        <v>0.029945758555</v>
       </c>
       <c r="R4">
-        <v>1.679491749203262</v>
+        <v>0.269511826995</v>
       </c>
       <c r="S4">
-        <v>0.0002474193051487953</v>
+        <v>3.642067349412974E-06</v>
       </c>
       <c r="T4">
-        <v>0.0002474193051487953</v>
+        <v>3.816325096634423E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H5">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I5">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J5">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.0802056363119</v>
+        <v>0.08596833333333333</v>
       </c>
       <c r="N5">
-        <v>1.0802056363119</v>
+        <v>0.257905</v>
       </c>
       <c r="O5">
-        <v>0.007143989252419803</v>
+        <v>0.0005294042074723974</v>
       </c>
       <c r="P5">
-        <v>0.007143989252419803</v>
+        <v>0.0005308323844914145</v>
       </c>
       <c r="Q5">
-        <v>41.52246149798001</v>
+        <v>0.019720705825</v>
       </c>
       <c r="R5">
-        <v>41.52246149798001</v>
+        <v>0.177486352425</v>
       </c>
       <c r="S5">
-        <v>0.006117004490657055</v>
+        <v>2.398474517207325E-06</v>
       </c>
       <c r="T5">
-        <v>0.006117004490657055</v>
+        <v>2.513231529101673E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>6.45359715342374</v>
+        <v>0.229395</v>
       </c>
       <c r="H6">
-        <v>6.45359715342374</v>
+        <v>0.688185</v>
       </c>
       <c r="I6">
-        <v>0.1437550821363413</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J6">
-        <v>0.1437550821363413</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>149.720833061918</v>
+        <v>1.310681</v>
       </c>
       <c r="N6">
-        <v>149.720833061918</v>
+        <v>2.621362</v>
       </c>
       <c r="O6">
-        <v>0.9901855593992133</v>
+        <v>0.008071344518960036</v>
       </c>
       <c r="P6">
-        <v>0.9901855593992133</v>
+        <v>0.005395412423470593</v>
       </c>
       <c r="Q6">
-        <v>966.237942056625</v>
+        <v>0.3006636679950001</v>
       </c>
       <c r="R6">
-        <v>966.237942056625</v>
+        <v>1.80398200797</v>
       </c>
       <c r="S6">
-        <v>0.142344206421653</v>
+        <v>3.656735982653862E-05</v>
       </c>
       <c r="T6">
-        <v>0.142344206421653</v>
+        <v>2.554463708570606E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H7">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I7">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J7">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.360093196324031</v>
+        <v>160.469513</v>
       </c>
       <c r="N7">
-        <v>0.360093196324031</v>
+        <v>481.408539</v>
       </c>
       <c r="O7">
-        <v>0.002381492780570517</v>
+        <v>0.9881921872772522</v>
       </c>
       <c r="P7">
-        <v>0.002381492780570517</v>
+        <v>0.9908580394792582</v>
       </c>
       <c r="Q7">
-        <v>2.323896426764022</v>
+        <v>7038.040768571514</v>
       </c>
       <c r="R7">
-        <v>2.323896426764022</v>
+        <v>63342.36691714363</v>
       </c>
       <c r="S7">
-        <v>0.0003423516902780186</v>
+        <v>0.8559816055409888</v>
       </c>
       <c r="T7">
-        <v>0.0003423516902780186</v>
+        <v>0.896936758736773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H8">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I8">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J8">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0436919293360523</v>
+        <v>0.3902430000000001</v>
       </c>
       <c r="N8">
-        <v>0.0436919293360523</v>
+        <v>1.170729</v>
       </c>
       <c r="O8">
-        <v>0.0002889585677963607</v>
+        <v>0.00240316728411606</v>
       </c>
       <c r="P8">
-        <v>0.0002889585677963607</v>
+        <v>0.002409650323426259</v>
       </c>
       <c r="Q8">
-        <v>0.2819701107907383</v>
+        <v>17.115688159717</v>
       </c>
       <c r="R8">
-        <v>0.2819701107907383</v>
+        <v>154.041193437453</v>
       </c>
       <c r="S8">
-        <v>4.15392626475654E-05</v>
+        <v>0.002081646684446111</v>
       </c>
       <c r="T8">
-        <v>4.15392626475654E-05</v>
+        <v>0.002181244804673362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>43.85905233333333</v>
+      </c>
+      <c r="H9">
+        <v>131.577157</v>
+      </c>
+      <c r="I9">
+        <v>0.8662096468293877</v>
+      </c>
+      <c r="J9">
+        <v>0.9052121726823298</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1305423333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.391627</v>
+      </c>
+      <c r="O9">
+        <v>0.0008038967121994246</v>
+      </c>
+      <c r="P9">
+        <v>0.0008060653893535184</v>
+      </c>
+      <c r="Q9">
+        <v>5.725463029382111</v>
+      </c>
+      <c r="R9">
+        <v>51.529167264439</v>
+      </c>
+      <c r="S9">
+        <v>0.0006963430871615695</v>
+      </c>
+      <c r="T9">
+        <v>0.0007296602024207265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>43.85905233333333</v>
+      </c>
+      <c r="H10">
+        <v>131.577157</v>
+      </c>
+      <c r="I10">
+        <v>0.8662096468293877</v>
+      </c>
+      <c r="J10">
+        <v>0.9052121726823298</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.08596833333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.257905</v>
+      </c>
+      <c r="O10">
+        <v>0.0005294042074723974</v>
+      </c>
+      <c r="P10">
+        <v>0.0005308323844914145</v>
+      </c>
+      <c r="Q10">
+        <v>3.77048963067611</v>
+      </c>
+      <c r="R10">
+        <v>33.934406676085</v>
+      </c>
+      <c r="S10">
+        <v>0.0004585750315846572</v>
+      </c>
+      <c r="T10">
+        <v>0.0004805159360956152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>43.85905233333333</v>
+      </c>
+      <c r="H11">
+        <v>131.577157</v>
+      </c>
+      <c r="I11">
+        <v>0.8662096468293877</v>
+      </c>
+      <c r="J11">
+        <v>0.9052121726823298</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.310681</v>
+      </c>
+      <c r="N11">
+        <v>2.621362</v>
+      </c>
+      <c r="O11">
+        <v>0.008071344518960036</v>
+      </c>
+      <c r="P11">
+        <v>0.005395412423470593</v>
+      </c>
+      <c r="Q11">
+        <v>57.48522657130567</v>
+      </c>
+      <c r="R11">
+        <v>344.911359427834</v>
+      </c>
+      <c r="S11">
+        <v>0.006991476485206687</v>
+      </c>
+      <c r="T11">
+        <v>0.00488399300236705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H12">
+        <v>13.089704</v>
+      </c>
+      <c r="I12">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J12">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>160.469513</v>
+      </c>
+      <c r="N12">
+        <v>481.408539</v>
+      </c>
+      <c r="O12">
+        <v>0.9881921872772522</v>
+      </c>
+      <c r="P12">
+        <v>0.9908580394792582</v>
+      </c>
+      <c r="Q12">
+        <v>1050.249213097076</v>
+      </c>
+      <c r="R12">
+        <v>6301.495278582457</v>
+      </c>
+      <c r="S12">
+        <v>0.1277335606891435</v>
+      </c>
+      <c r="T12">
+        <v>0.08923005289272039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>6.45359715342374</v>
-      </c>
-      <c r="H9">
-        <v>6.45359715342374</v>
-      </c>
-      <c r="I9">
-        <v>0.1437550821363413</v>
-      </c>
-      <c r="J9">
-        <v>0.1437550821363413</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.0802056363119</v>
-      </c>
-      <c r="N9">
-        <v>1.0802056363119</v>
-      </c>
-      <c r="O9">
-        <v>0.007143989252419803</v>
-      </c>
-      <c r="P9">
-        <v>0.007143989252419803</v>
-      </c>
-      <c r="Q9">
-        <v>6.971212019614756</v>
-      </c>
-      <c r="R9">
-        <v>6.971212019614756</v>
-      </c>
-      <c r="S9">
-        <v>0.001026984761762748</v>
-      </c>
-      <c r="T9">
-        <v>0.001026984761762748</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H13">
+        <v>13.089704</v>
+      </c>
+      <c r="I13">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J13">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3902430000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.170729</v>
+      </c>
+      <c r="O13">
+        <v>0.00240316728411606</v>
+      </c>
+      <c r="P13">
+        <v>0.002409650323426259</v>
+      </c>
+      <c r="Q13">
+        <v>2.554082679036001</v>
+      </c>
+      <c r="R13">
+        <v>15.324496074216</v>
+      </c>
+      <c r="S13">
+        <v>0.0003106330105458313</v>
+      </c>
+      <c r="T13">
+        <v>0.0002169970038546442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H14">
+        <v>13.089704</v>
+      </c>
+      <c r="I14">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J14">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1305423333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.391627</v>
+      </c>
+      <c r="O14">
+        <v>0.0008038967121994246</v>
+      </c>
+      <c r="P14">
+        <v>0.0008060653893535184</v>
+      </c>
+      <c r="Q14">
+        <v>0.8543802514013334</v>
+      </c>
+      <c r="R14">
+        <v>5.126281508408001</v>
+      </c>
+      <c r="S14">
+        <v>0.0001039115576884422</v>
+      </c>
+      <c r="T14">
+        <v>7.258886183615743E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H15">
+        <v>13.089704</v>
+      </c>
+      <c r="I15">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J15">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.08596833333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.257905</v>
+      </c>
+      <c r="O15">
+        <v>0.0005294042074723974</v>
+      </c>
+      <c r="P15">
+        <v>0.0005308323844914145</v>
+      </c>
+      <c r="Q15">
+        <v>0.5626500183533334</v>
+      </c>
+      <c r="R15">
+        <v>3.37590011012</v>
+      </c>
+      <c r="S15">
+        <v>6.843070137053291E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.78032168666976E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H16">
+        <v>13.089704</v>
+      </c>
+      <c r="I16">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J16">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.310681</v>
+      </c>
+      <c r="N16">
+        <v>2.621362</v>
+      </c>
+      <c r="O16">
+        <v>0.008071344518960036</v>
+      </c>
+      <c r="P16">
+        <v>0.005395412423470593</v>
+      </c>
+      <c r="Q16">
+        <v>8.578213164212002</v>
+      </c>
+      <c r="R16">
+        <v>34.31285265684801</v>
+      </c>
+      <c r="S16">
+        <v>0.001043300673926812</v>
+      </c>
+      <c r="T16">
+        <v>0.0004858747840178367</v>
       </c>
     </row>
   </sheetData>
